--- a/MailManager.Web/Template/Template.xlsx
+++ b/MailManager.Web/Template/Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rian\Code\MailManager\MailManager\MailManager.Web\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rian.ardana\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3BA164-B362-42F4-AD3A-0D6E94E9E966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21573D9D-6AB1-47DB-A933-B19EA8D9F529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{775A3E3C-C88F-4B82-973F-E993F25EB7D2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>No Badge</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t>Date Of Birth (dd/mm/yyyy)</t>
   </si>
 </sst>
 </file>
@@ -97,10 +100,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -436,20 +441,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5051D531-095C-4C01-8399-81B911EA4E5B}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.453125" customWidth="1"/>
     <col min="2" max="2" width="22.08984375" customWidth="1"/>
-    <col min="3" max="3" width="40.6328125" customWidth="1"/>
+    <col min="3" max="3" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -459,50 +465,53 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.35">
@@ -573,5 +582,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>